--- a/TIMES-DE/SuppXLS/Scen_TRA_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_Maxshare_Constraint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEC40FA-A1B8-2241-9512-F036C9290EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8FEC40FA-A1B8-2241-9512-F036C9290EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54536A1D-0211-4E97-874C-1EA46710F540}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="8" r:id="rId1"/>
@@ -993,17 +993,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE3A80C-A4F4-42D0-B754-18A20D897C51}">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44400</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="3"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -1055,26 +1055,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1FBDBE-B9AA-4E74-9360-ACD116484649}">
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="M2">
         <f>1.01*-1</f>
         <v>-1.01</v>
@@ -1083,25 +1083,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C3" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C4" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>60</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>84</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>Maximum shares of cars TPCA1*TPCAU</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <f>"UC_Max_"&amp;LEFT(D8,5)&amp;"_"&amp;RIGHT(F8,3)</f>
         <v>UC_Max_TPCA1_CAU</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>Maximum shares of cars TPCA2*TPCAU</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <f>"UC_Max_"&amp;LEFT(D11,5)&amp;"_"&amp;RIGHT(F11,3)</f>
         <v>UC_Max_TPCA2_CAU</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>84</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>Maximum shares of cars TPCA3*TPCAU</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <f>"UC_Max_"&amp;LEFT(D14,5)&amp;"_"&amp;RIGHT(F14,3)</f>
         <v>UC_Max_TPCA3_CAU</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>39</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>Maximum shares of cars TPCA4*TPCAU</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <f>"UC_Max_"&amp;LEFT(D17,5)&amp;"_"&amp;RIGHT(F17,3)</f>
         <v>UC_Max_TPCA4_CAU</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>84</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>Maximum shares of cars TPCA1*TPCAR</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <f>"UC_Max_"&amp;LEFT(D20,5)&amp;"_"&amp;RIGHT(F20,3)</f>
         <v>UC_Max_TPCA1_CAR</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>Maximum shares of cars TPCA2*TPCAR</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <f>"UC_Max_"&amp;LEFT(D23,5)&amp;"_"&amp;RIGHT(F23,3)</f>
         <v>UC_Max_TPCA2_CAR</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>38</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>Maximum shares of cars TPCA3*TPCAR</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C27" t="str">
         <f>"UC_Max_"&amp;LEFT(D26,5)&amp;"_"&amp;RIGHT(F26,3)</f>
         <v>UC_Max_TPCA3_CAR</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>39</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>84</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>Maximum shares of cars TPCA4*TPCAR</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C30" t="str">
         <f>"UC_Max_"&amp;LEFT(D29,5)&amp;"_"&amp;RIGHT(F29,3)</f>
         <v>UC_Max_TPCA4_CAR</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>40</v>
       </c>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>84</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>Maximum shares of cars TPCA1*TPCAL</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C33" t="str">
         <f>"UC_Max_"&amp;LEFT(D32,5)&amp;"_"&amp;RIGHT(F32,3)</f>
         <v>UC_Max_TPCA1_CAL</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>37</v>
       </c>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>Maximum shares of cars TPCA2*TPCAL</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C36" t="str">
         <f>"UC_Max_"&amp;LEFT(D35,5)&amp;"_"&amp;RIGHT(F35,3)</f>
         <v>UC_Max_TPCA2_CAL</v>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>Maximum shares of cars TPCA3*TPCAL</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C39" t="str">
         <f>"UC_Max_"&amp;LEFT(D38,5)&amp;"_"&amp;RIGHT(F38,3)</f>
         <v>UC_Max_TPCA3_CAL</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>39</v>
       </c>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>Maximum shares of cars TPCA4*TPCAL</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C42" t="str">
         <f>"UC_Max_"&amp;LEFT(D41,5)&amp;"_"&amp;RIGHT(F41,3)</f>
         <v>UC_Max_TPCA4_CAL</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>40</v>
       </c>
@@ -2441,10 +2441,10 @@
       </c>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="D45" s="14"/>
@@ -2453,11 +2453,11 @@
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -2475,7 +2475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C48" s="33" t="s">
         <v>60</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C49" s="30" t="s">
         <v>93</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -2573,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W51" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W52" t="s">
         <v>13</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W53" t="s">
         <v>15</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W54" t="s">
         <v>17</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W55" t="s">
         <v>19</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W56" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W57" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W58" t="s">
         <v>25</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.35">
       <c r="W59" t="s">
         <v>27</v>
       </c>
@@ -2645,12 +2645,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.35">
       <c r="Q61" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.35">
       <c r="S62">
         <v>2010</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.35">
       <c r="Q63" t="s">
         <v>29</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:24" x14ac:dyDescent="0.35">
       <c r="Q64" t="s">
         <v>31</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="65" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q65" t="s">
         <v>22</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0.17999999999999994</v>
       </c>
     </row>
-    <row r="66" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q66" t="s">
         <v>34</v>
       </c>
@@ -2740,12 +2740,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="70" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q70" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="17:25" x14ac:dyDescent="0.35">
       <c r="S71">
         <v>2010</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q72" t="s">
         <v>48</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0.57636248232884224</v>
       </c>
     </row>
-    <row r="73" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q73" t="s">
         <v>49</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.32363751767115778</v>
       </c>
     </row>
-    <row r="74" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q74" t="s">
         <v>50</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>6.4040275814315803E-2</v>
       </c>
     </row>
-    <row r="75" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q75" t="s">
         <v>51</v>
       </c>
@@ -2812,12 +2812,12 @@
         <v>3.5959724185684203E-2</v>
       </c>
     </row>
-    <row r="77" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q77" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q78" s="19"/>
       <c r="R78" s="20"/>
       <c r="T78">
@@ -2839,7 +2839,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q79" s="20" t="s">
         <v>54</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0.70034859775632918</v>
       </c>
     </row>
-    <row r="80" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q80" s="20" t="s">
         <v>54</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0.11673821079646232</v>
       </c>
     </row>
-    <row r="81" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q81" s="20" t="s">
         <v>54</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0.15677573660936586</v>
       </c>
     </row>
-    <row r="82" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q82" s="20" t="s">
         <v>54</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>2.6137454837842716E-2</v>
       </c>
     </row>
-    <row r="83" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q83" s="20" t="s">
         <v>55</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0.11671215559876158</v>
       </c>
     </row>
-    <row r="84" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q84" s="20" t="s">
         <v>55</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>0.70035359189992175</v>
       </c>
     </row>
-    <row r="85" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q85" s="20" t="s">
         <v>55</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>2.6126466482380289E-2</v>
       </c>
     </row>
-    <row r="86" spans="17:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q86" s="20" t="s">
         <v>55</v>
       </c>
@@ -3087,12 +3087,12 @@
       <selection activeCell="J27" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -3100,10 +3100,10 @@
       <c r="F3" s="16"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>60</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <f t="shared" ref="B8:B15" si="0">"UC_Max_"&amp;LEFT(C8,5)&amp;"_"&amp;RIGHT(E8,3)</f>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3187,7 +3187,7 @@
         <v>Maximum shares of Trucks TFTRLS*TFTRU</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -3230,7 +3230,7 @@
         <v>Maximum shares of Trucks TFTRHS*TFTRU</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3273,7 +3273,7 @@
         <v>Maximum shares of Trucks TFTRLL*TFTRU</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -3316,7 +3316,7 @@
         <v>Maximum shares of Trucks TFTRHL*TFTRU</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -3359,7 +3359,7 @@
         <v>Maximum shares of Trucks TFTRLS*TFTRR</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -3402,7 +3402,7 @@
         <v>Maximum shares of Trucks TFTRHS*TFTRR</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -3445,7 +3445,7 @@
         <v>Maximum shares of Trucks TFTRLL*TFTRR</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -3488,22 +3488,22 @@
         <v>Maximum shares of Trucks TFTRHL*TFTRR</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
         <v>60</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f>$B$8</f>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3628,7 +3628,7 @@
         <v>-166.741558393167</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <f>B23</f>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3689,7 +3689,7 @@
         <v>-173.6820361155942</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f t="shared" ref="B25:B74" si="6">B24</f>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3750,7 +3750,7 @@
         <v>-180.6225138380214</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3811,7 +3811,7 @@
         <v>-187.56299156044952</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3872,7 +3872,7 @@
         <v>-194.50346928287672</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3933,7 +3933,7 @@
         <v>-201.44394700530484</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -3994,7 +3994,7 @@
         <v>-208.38442472773295</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4055,7 +4055,7 @@
         <v>-215.32490245016015</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4116,7 +4116,7 @@
         <v>-222.26538017258645</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4177,7 +4177,7 @@
         <v>-229.20585789501456</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4238,7 +4238,7 @@
         <v>-236.14633561744267</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4299,7 +4299,7 @@
         <v>-243.08681333986988</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4360,7 +4360,7 @@
         <v>-250.02729106229708</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4421,7 +4421,7 @@
         <v>-256.96776878472519</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4482,7 +4482,7 @@
         <v>-263.90824650715331</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4543,7 +4543,7 @@
         <v>-270.8487242295796</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B39" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4604,7 +4604,7 @@
         <v>-277.78920195200772</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B40" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4665,7 +4665,7 @@
         <v>-284.72967967443492</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B41" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4726,7 +4726,7 @@
         <v>-291.67015739686303</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B42" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4787,7 +4787,7 @@
         <v>-298.61063511928933</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B43" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4848,7 +4848,7 @@
         <v>-305.55111284171744</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B44" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4909,7 +4909,7 @@
         <v>-312.49159056414555</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B45" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -4970,7 +4970,7 @@
         <v>-319.43206828657185</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B46" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5031,7 +5031,7 @@
         <v>-326.37254600899996</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B47" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5092,7 +5092,7 @@
         <v>-333.31302373142626</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B48" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5153,7 +5153,7 @@
         <v>-340.25350145385528</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B49" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5214,7 +5214,7 @@
         <v>-347.19397917628157</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B50" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5275,7 +5275,7 @@
         <v>-354.13445689870969</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B51" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5336,7 +5336,7 @@
         <v>-361.0749346211378</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B52" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5397,7 +5397,7 @@
         <v>-368.01541234356409</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B53" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5458,7 +5458,7 @@
         <v>-374.95589006599221</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B54" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5519,7 +5519,7 @@
         <v>-381.89636778842032</v>
       </c>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B55" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5580,7 +5580,7 @@
         <v>-388.00670967303631</v>
       </c>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B56" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5641,7 +5641,7 @@
         <v>-394.21481702780511</v>
       </c>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B57" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5702,7 +5702,7 @@
         <v>-400.52225410024948</v>
       </c>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B58" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5763,7 +5763,7 @@
         <v>-406.93061016585307</v>
       </c>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B59" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5824,7 +5824,7 @@
         <v>-413.44149992850726</v>
       </c>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B60" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5885,7 +5885,7 @@
         <v>-420.05656392736091</v>
       </c>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B61" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -5946,7 +5946,7 @@
         <v>-426.77746895019845</v>
       </c>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B62" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6007,7 +6007,7 @@
         <v>-433.60590845340084</v>
       </c>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B63" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6068,7 +6068,7 @@
         <v>-440.54360298865686</v>
       </c>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B64" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6129,7 +6129,7 @@
         <v>-447.59230063647556</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B65" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6190,7 +6190,7 @@
         <v>-454.75377744666002</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B66" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6251,7 +6251,7 @@
         <v>-462.02983788580605</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B67" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6312,7 +6312,7 @@
         <v>-469.42231529197852</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B68" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6373,7 +6373,7 @@
         <v>-476.93307233664927</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B69" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6434,7 +6434,7 @@
         <v>-484.56400149403817</v>
       </c>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B70" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6495,7 +6495,7 @@
         <v>-492.31702551794115</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B71" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6556,7 +6556,7 @@
         <v>-500.19409792622719</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B72" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6617,7 +6617,7 @@
         <v>-508.19720349304953</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B73" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6678,7 +6678,7 @@
         <v>-516.32835874893863</v>
       </c>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B74" t="str">
         <f t="shared" si="6"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -6739,7 +6739,7 @@
         <v>7055.9625922071937</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B75" t="str">
         <f>$B$9</f>
         <v>UC_Max_TFTRH_TRU</v>
@@ -6798,7 +6798,7 @@
         <v>13160.075217005926</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B76" t="str">
         <f>B75</f>
         <v>UC_Max_TFTRH_TRU</v>
@@ -6853,7 +6853,7 @@
         <v>13370.63642047802</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B77" t="str">
         <f t="shared" ref="B77:B126" si="8">B76</f>
         <v>UC_Max_TFTRH_TRU</v>
@@ -6908,7 +6908,7 @@
         <v>13584.566603205669</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -6963,7 +6963,7 @@
         <v>13801.919668856955</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B79" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7018,7 +7018,7 @@
         <v>14022.750383558665</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B80" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7073,7 +7073,7 @@
         <v>14247.114389695605</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B81" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7128,7 +7128,7 @@
         <v>14475.068219930734</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B82" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7183,7 +7183,7 @@
         <v>14706.669311449628</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B83" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7238,7 +7238,7 @@
         <v>14941.976020432823</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B84" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7293,7 +7293,7 @@
         <v>15181.047636759749</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B85" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7348,7 +7348,7 @@
         <v>15423.944398947906</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B86" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7403,7 +7403,7 @@
         <v>15670.727509331075</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B87" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7458,7 +7458,7 @@
         <v>15921.45914948037</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B88" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7513,7 +7513,7 @@
         <v>16176.202495872056</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B89" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7568,7 +7568,7 @@
         <v>16435.021735806007</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B90" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7623,7 +7623,7 @@
         <v>16697.982083578907</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B91" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7678,7 +7678,7 @@
         <v>16965.149796916172</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B92" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7733,7 +7733,7 @@
         <v>17236.592193666831</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B93" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7788,7 +7788,7 @@
         <v>17512.377668765497</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B94" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7843,7 +7843,7 @@
         <v>17792.57571146575</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B95" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7898,7 +7898,7 @@
         <v>18077.256922849199</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B96" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -7953,7 +7953,7 @@
         <v>18366.493033614785</v>
       </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B97" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8008,7 +8008,7 @@
         <v>18660.356922152627</v>
       </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B98" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8063,7 +8063,7 @@
         <v>18958.92263290707</v>
       </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B99" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8118,7 +8118,7 @@
         <v>19262.265395033581</v>
       </c>
     </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B100" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8173,7 +8173,7 @@
         <v>19570.461641354119</v>
       </c>
     </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B101" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8228,7 +8228,7 @@
         <v>19883.589027615788</v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B102" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8283,7 +8283,7 @@
         <v>20201.726452057643</v>
       </c>
     </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B103" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8338,7 +8338,7 @@
         <v>20524.954075290563</v>
       </c>
     </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B104" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8393,7 +8393,7 @@
         <v>20853.353340495214</v>
       </c>
     </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B105" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8456,7 +8456,7 @@
         <v>-250.11584390907501</v>
       </c>
     </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B106" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8519,7 +8519,7 @@
         <v>-260.5267064403215</v>
       </c>
     </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B107" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8582,7 +8582,7 @@
         <v>-270.93756897156982</v>
       </c>
     </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B108" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8645,7 +8645,7 @@
         <v>-281.34843150281449</v>
       </c>
     </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B109" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8708,7 +8708,7 @@
         <v>-291.7592940340628</v>
       </c>
     </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B110" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8771,7 +8771,7 @@
         <v>-302.17015656530839</v>
       </c>
     </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B111" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8834,7 +8834,7 @@
         <v>-312.58101909655579</v>
       </c>
     </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B112" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8897,7 +8897,7 @@
         <v>-322.99188162780229</v>
       </c>
     </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B113" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -8960,7 +8960,7 @@
         <v>-333.40274415904878</v>
       </c>
     </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B114" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9023,7 +9023,7 @@
         <v>-343.81360669029436</v>
       </c>
     </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B115" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9086,7 +9086,7 @@
         <v>-354.22446922154086</v>
       </c>
     </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B116" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9149,7 +9149,7 @@
         <v>-364.63533175278826</v>
       </c>
     </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B117" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9212,7 +9212,7 @@
         <v>-375.04619428403566</v>
       </c>
     </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B118" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9275,7 +9275,7 @@
         <v>-385.45705681528125</v>
       </c>
     </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B119" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9338,7 +9338,7 @@
         <v>-395.86791934652865</v>
       </c>
     </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B120" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9401,7 +9401,7 @@
         <v>-406.27878187777605</v>
       </c>
     </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B121" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9464,7 +9464,7 @@
         <v>-416.68964440901982</v>
       </c>
     </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B122" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9527,7 +9527,7 @@
         <v>-427.10050694026722</v>
       </c>
     </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B123" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9590,7 +9590,7 @@
         <v>-437.51136947151645</v>
       </c>
     </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B124" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9653,7 +9653,7 @@
         <v>-447.92223200276021</v>
       </c>
     </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B125" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9716,7 +9716,7 @@
         <v>-458.3330945340058</v>
       </c>
     </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B126" t="str">
         <f t="shared" si="8"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -9779,7 +9779,7 @@
         <v>-468.74395706525502</v>
       </c>
     </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B127" t="str">
         <f>$B$10</f>
         <v>UC_Max_TFTRL_TRU</v>
@@ -9846,7 +9846,7 @@
         <v>-479.1548195965006</v>
       </c>
     </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B128" t="str">
         <f>B127</f>
         <v>UC_Max_TFTRL_TRU</v>
@@ -9909,7 +9909,7 @@
         <v>-489.56568212774619</v>
       </c>
     </row>
-    <row r="129" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B129" t="str">
         <f t="shared" ref="B129:B178" si="14">B128</f>
         <v>UC_Max_TFTRL_TRU</v>
@@ -9972,7 +9972,7 @@
         <v>-499.97654465899541</v>
       </c>
     </row>
-    <row r="130" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B130" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10035,7 +10035,7 @@
         <v>-510.38740719024099</v>
       </c>
     </row>
-    <row r="131" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B131" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10098,7 +10098,7 @@
         <v>-520.7982697214884</v>
       </c>
     </row>
-    <row r="132" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B132" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10161,7 +10161,7 @@
         <v>-531.2091322527358</v>
       </c>
     </row>
-    <row r="133" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B133" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10224,7 +10224,7 @@
         <v>-541.61999478397956</v>
       </c>
     </row>
-    <row r="134" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B134" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10287,7 +10287,7 @@
         <v>-552.03085731522697</v>
       </c>
     </row>
-    <row r="135" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B135" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10350,7 +10350,7 @@
         <v>-562.44171984647255</v>
       </c>
     </row>
-    <row r="136" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B136" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10413,7 +10413,7 @@
         <v>-572.85258237771995</v>
       </c>
     </row>
-    <row r="137" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B137" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10476,7 +10476,7 @@
         <v>-582.01822369576439</v>
       </c>
     </row>
-    <row r="138" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B138" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10539,7 +10539,7 @@
         <v>-591.33051527489624</v>
       </c>
     </row>
-    <row r="139" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B139" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10602,7 +10602,7 @@
         <v>-600.79180351929608</v>
       </c>
     </row>
-    <row r="140" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B140" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10665,7 +10665,7 @@
         <v>-610.40447237560511</v>
       </c>
     </row>
-    <row r="141" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B141" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10728,7 +10728,7 @@
         <v>-620.17094393361185</v>
       </c>
     </row>
-    <row r="142" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B142" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10791,7 +10791,7 @@
         <v>-630.09367903655038</v>
       </c>
     </row>
-    <row r="143" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B143" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10854,7 +10854,7 @@
         <v>-640.17517790113743</v>
       </c>
     </row>
-    <row r="144" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B144" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10917,7 +10917,7 @@
         <v>-650.41798074755388</v>
       </c>
     </row>
-    <row r="145" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B145" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -10980,7 +10980,7 @@
         <v>-660.82466843951443</v>
       </c>
     </row>
-    <row r="146" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B146" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11043,7 +11043,7 @@
         <v>-671.39786313454715</v>
       </c>
     </row>
-    <row r="147" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B147" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11106,7 +11106,7 @@
         <v>-682.14022894469963</v>
       </c>
     </row>
-    <row r="148" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B148" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11169,7 +11169,7 @@
         <v>-693.05447260781511</v>
       </c>
     </row>
-    <row r="149" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B149" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11232,7 +11232,7 @@
         <v>-704.1433441695408</v>
       </c>
     </row>
-    <row r="150" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B150" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11295,7 +11295,7 @@
         <v>-715.40963767624999</v>
       </c>
     </row>
-    <row r="151" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B151" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11358,7 +11358,7 @@
         <v>-726.85619187907287</v>
       </c>
     </row>
-    <row r="152" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B152" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11421,7 +11421,7 @@
         <v>-738.48589094913768</v>
       </c>
     </row>
-    <row r="153" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B153" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11484,7 +11484,7 @@
         <v>-750.30166520432613</v>
       </c>
     </row>
-    <row r="154" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B154" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11547,7 +11547,7 @@
         <v>-762.30649184759386</v>
       </c>
     </row>
-    <row r="155" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B155" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11610,7 +11610,7 @@
         <v>-774.50339571715449</v>
       </c>
     </row>
-    <row r="156" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B156" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11673,7 +11673,7 @@
         <v>10584.092264385919</v>
       </c>
     </row>
-    <row r="157" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B157" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11736,7 +11736,7 @@
         <v>-13814.805556015999</v>
       </c>
     </row>
-    <row r="158" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B158" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11799,7 +11799,7 @@
         <v>-13884.004317429804</v>
       </c>
     </row>
-    <row r="159" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B159" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11862,7 +11862,7 @@
         <v>-13958.256618571422</v>
       </c>
     </row>
-    <row r="160" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B160" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11925,7 +11925,7 @@
         <v>-14037.64331607647</v>
       </c>
     </row>
-    <row r="161" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B161" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -11988,7 +11988,7 @@
         <v>-14122.246560286778</v>
       </c>
     </row>
-    <row r="162" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B162" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12051,7 +12051,7 @@
         <v>-14212.149815949637</v>
       </c>
     </row>
-    <row r="163" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B163" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12114,7 +12114,7 @@
         <v>-14307.437883248273</v>
       </c>
     </row>
-    <row r="164" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B164" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12177,7 +12177,7 @@
         <v>-14408.196919168873</v>
       </c>
     </row>
-    <row r="165" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B165" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12240,7 +12240,7 @@
         <v>-14514.514459209375</v>
       </c>
     </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B166" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12303,7 +12303,7 @@
         <v>-14626.479439435705</v>
       </c>
     </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B167" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12366,7 +12366,7 @@
         <v>-14744.18221889083</v>
       </c>
     </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B168" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12429,7 +12429,7 @@
         <v>-14867.714602362421</v>
       </c>
     </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B169" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12492,7 +12492,7 @@
         <v>-14997.169863514724</v>
       </c>
     </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B170" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12555,7 +12555,7 @@
         <v>-15132.642768390651</v>
       </c>
     </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B171" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12618,7 +12618,7 @@
         <v>-15274.229599289771</v>
       </c>
     </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B172" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12681,7 +12681,7 @@
         <v>-15422.028179028457</v>
       </c>
     </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B173" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12744,7 +12744,7 @@
         <v>-15576.137895588128</v>
       </c>
     </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B174" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12807,7 +12807,7 @@
         <v>-15736.659727157941</v>
       </c>
     </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B175" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12870,7 +12870,7 @@
         <v>-15903.696267578045</v>
       </c>
     </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B176" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12933,7 +12933,7 @@
         <v>-16077.351752190056</v>
       </c>
     </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B177" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -12996,7 +12996,7 @@
         <v>-16257.732084101021</v>
       </c>
     </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B178" t="str">
         <f t="shared" si="14"/>
         <v>UC_Max_TFTRL_TRU</v>
@@ -13059,7 +13059,7 @@
         <v>-16444.944860867756</v>
       </c>
     </row>
-    <row r="179" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B179" t="str">
         <f>$B$11</f>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13126,7 +13126,7 @@
         <v>-16639.099401607928</v>
       </c>
     </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B180" t="str">
         <f>B179</f>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13189,7 +13189,7 @@
         <v>-16840.306774545123</v>
       </c>
     </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B181" t="str">
         <f t="shared" ref="B181:B230" si="20">B180</f>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13252,7 +13252,7 @@
         <v>-17048.679824994488</v>
       </c>
     </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B182" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13315,7 +13315,7 @@
         <v>-17264.333203796225</v>
       </c>
     </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B183" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13378,7 +13378,7 @@
         <v>-17487.383396203964</v>
       </c>
     </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B184" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13441,7 +13441,7 @@
         <v>-17717.948751235403</v>
       </c>
     </row>
-    <row r="185" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B185" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13504,7 +13504,7 @@
         <v>-17956.14951149252</v>
       </c>
     </row>
-    <row r="186" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B186" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13567,7 +13567,7 @@
         <v>-18202.107843458936</v>
       </c>
     </row>
-    <row r="187" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B187" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13597,7 +13597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B188" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13627,7 +13627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B189" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13657,7 +13657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B190" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13687,7 +13687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B191" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13717,7 +13717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B192" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13747,7 +13747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13777,7 +13777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13807,7 +13807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13837,7 +13837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13867,7 +13867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13897,7 +13897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13927,7 +13927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13957,7 +13957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -13987,7 +13987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14017,7 +14017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14047,7 +14047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14077,7 +14077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14107,7 +14107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14137,7 +14137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14167,7 +14167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14197,7 +14197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14227,7 +14227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14257,7 +14257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14287,7 +14287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14317,7 +14317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14347,7 +14347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14377,7 +14377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14407,7 +14407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14437,7 +14437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14467,7 +14467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14497,7 +14497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14527,7 +14527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14557,7 +14557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14587,7 +14587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14617,7 +14617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14647,7 +14647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14677,7 +14677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14707,7 +14707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B225" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14737,7 +14737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B226" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14767,7 +14767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B227" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14797,7 +14797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B228" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14827,7 +14827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B229" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14857,7 +14857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B230" t="str">
         <f t="shared" si="20"/>
         <v>UC_Max_TFTRH_TRU</v>
@@ -14887,7 +14887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B231" t="str">
         <f>$B$12</f>
         <v>UC_Max_TFTRL_TRR</v>
@@ -14921,7 +14921,7 @@
         <v>Maximum shares of Trucks TFTRLS*TFTRR</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B232" t="str">
         <f>B231</f>
         <v>UC_Max_TFTRL_TRR</v>
@@ -14951,7 +14951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B233" t="str">
         <f t="shared" ref="B233:B282" si="23">B232</f>
         <v>UC_Max_TFTRL_TRR</v>
@@ -14981,7 +14981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B234" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15011,7 +15011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B235" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15041,7 +15041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B236" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15071,7 +15071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B237" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15101,7 +15101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B238" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15131,7 +15131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B239" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15161,7 +15161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B240" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15191,7 +15191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15221,7 +15221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15251,7 +15251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15281,7 +15281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15311,7 +15311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15341,7 +15341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15371,7 +15371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B247" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15401,7 +15401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B248" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15431,7 +15431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B249" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15461,7 +15461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B250" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15491,7 +15491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B251" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15521,7 +15521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B252" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15551,7 +15551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B253" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15581,7 +15581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15611,7 +15611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B255" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15641,7 +15641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B256" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15671,7 +15671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B257" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15701,7 +15701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B258" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15731,7 +15731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B259" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15761,7 +15761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B260" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15791,7 +15791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B261" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15821,7 +15821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B262" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15851,7 +15851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B263" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15881,7 +15881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B264" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15911,7 +15911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B265" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15941,7 +15941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B266" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -15971,7 +15971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B267" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16001,7 +16001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B268" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16031,7 +16031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B269" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16061,7 +16061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B270" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16091,7 +16091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16121,7 +16121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B272" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16151,7 +16151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B273" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16181,7 +16181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B274" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16211,7 +16211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B275" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16241,7 +16241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B276" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16271,7 +16271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B277" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16301,7 +16301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B278" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16331,7 +16331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B279" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16361,7 +16361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B280" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16391,7 +16391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B281" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16421,7 +16421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B282" t="str">
         <f t="shared" si="23"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -16451,7 +16451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B283" t="str">
         <f>$B$13</f>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16485,7 +16485,7 @@
         <v>Maximum shares of Trucks TFTRHS*TFTRR</v>
       </c>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B284" t="str">
         <f>B283</f>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16515,7 +16515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B285" t="str">
         <f t="shared" ref="B285:B334" si="26">B284</f>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16545,7 +16545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B286" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16575,7 +16575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B287" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16605,7 +16605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B288" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16635,7 +16635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B289" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16665,7 +16665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B290" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16695,7 +16695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B291" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16725,7 +16725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B292" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16755,7 +16755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B293" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16785,7 +16785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B294" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16815,7 +16815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B295" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16845,7 +16845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B296" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16875,7 +16875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B297" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16905,7 +16905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B298" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16935,7 +16935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B299" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16965,7 +16965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B300" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -16995,7 +16995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B301" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17025,7 +17025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B302" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17055,7 +17055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B303" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17085,7 +17085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B304" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17115,7 +17115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B305" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17145,7 +17145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B306" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17175,7 +17175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B307" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17205,7 +17205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B308" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17235,7 +17235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B309" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17265,7 +17265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B310" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17295,7 +17295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B311" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17325,7 +17325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B312" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17355,7 +17355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B313" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17385,7 +17385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B314" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17415,7 +17415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B315" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17445,7 +17445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B316" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17475,7 +17475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B317" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17505,7 +17505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B318" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17535,7 +17535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B319" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17565,7 +17565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B320" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17595,7 +17595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B321" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17625,7 +17625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B322" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17655,7 +17655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B323" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17685,7 +17685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B324" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17715,7 +17715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B325" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17745,7 +17745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B326" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17775,7 +17775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B327" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17805,7 +17805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B328" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17835,7 +17835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B329" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17865,7 +17865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B330" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17895,7 +17895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B331" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17925,7 +17925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B332" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17955,7 +17955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B333" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -17985,7 +17985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B334" t="str">
         <f t="shared" si="26"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -18015,7 +18015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B335" t="str">
         <f>$B$14</f>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18049,7 +18049,7 @@
         <v>Maximum shares of Trucks TFTRLL*TFTRR</v>
       </c>
     </row>
-    <row r="336" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B336" t="str">
         <f>B335</f>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18079,7 +18079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B337" t="str">
         <f t="shared" ref="B337:B386" si="29">B336</f>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18109,7 +18109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B338" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18139,7 +18139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B339" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18169,7 +18169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B340" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18199,7 +18199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B341" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18229,7 +18229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B342" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18259,7 +18259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B343" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18289,7 +18289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B344" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18319,7 +18319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B345" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18349,7 +18349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B346" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18379,7 +18379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B347" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18409,7 +18409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B348" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18439,7 +18439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B349" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18469,7 +18469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B350" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18499,7 +18499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B351" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18529,7 +18529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B352" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18559,7 +18559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B353" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18589,7 +18589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B354" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18619,7 +18619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B355" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18649,7 +18649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B356" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18679,7 +18679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B357" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18709,7 +18709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B358" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18739,7 +18739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B359" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18769,7 +18769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B360" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18799,7 +18799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B361" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18829,7 +18829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B362" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18859,7 +18859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B363" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18889,7 +18889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B364" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18919,7 +18919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B365" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18949,7 +18949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B366" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -18979,7 +18979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B367" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19009,7 +19009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B368" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19039,7 +19039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B369" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19069,7 +19069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B370" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19099,7 +19099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B371" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19129,7 +19129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B372" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19159,7 +19159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B373" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19189,7 +19189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B374" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19219,7 +19219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B375" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19249,7 +19249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B376" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19279,7 +19279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B377" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19309,7 +19309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B378" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19339,7 +19339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B379" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19369,7 +19369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B380" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19399,7 +19399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B381" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19429,7 +19429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B382" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19459,7 +19459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B383" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19489,7 +19489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B384" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19519,7 +19519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B385" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19549,7 +19549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B386" t="str">
         <f t="shared" si="29"/>
         <v>UC_Max_TFTRL_TRR</v>
@@ -19579,7 +19579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B387" t="str">
         <f>$B$15</f>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19613,7 +19613,7 @@
         <v>Maximum shares of Trucks TFTRHL*TFTRR</v>
       </c>
     </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B388" t="str">
         <f>B387</f>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19643,7 +19643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B389" t="str">
         <f t="shared" ref="B389:B438" si="32">B388</f>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19673,7 +19673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B390" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19703,7 +19703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B391" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19733,7 +19733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B392" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19763,7 +19763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B393" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19793,7 +19793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B394" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19823,7 +19823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B395" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19853,7 +19853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B396" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19883,7 +19883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B397" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19913,7 +19913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B398" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19943,7 +19943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B399" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -19973,7 +19973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B400" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20003,7 +20003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B401" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20033,7 +20033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B402" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20063,7 +20063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B403" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20093,7 +20093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B404" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20123,7 +20123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B405" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20153,7 +20153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B406" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20183,7 +20183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B407" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20213,7 +20213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B408" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20243,7 +20243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B409" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20273,7 +20273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B410" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20303,7 +20303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B411" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20333,7 +20333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B412" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20363,7 +20363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B413" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20393,7 +20393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B414" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20423,7 +20423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B415" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20453,7 +20453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B416" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20483,7 +20483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B417" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20513,7 +20513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B418" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20543,7 +20543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B419" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20573,7 +20573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B420" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20603,7 +20603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B421" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20633,7 +20633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B422" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20663,7 +20663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B423" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20693,7 +20693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B424" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20723,7 +20723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B425" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20753,7 +20753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B426" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20783,7 +20783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B427" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20813,7 +20813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B428" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20843,7 +20843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B429" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20873,7 +20873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B430" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20903,7 +20903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B431" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20933,7 +20933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B432" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20963,7 +20963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B433" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -20993,7 +20993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B434" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -21023,7 +21023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B435" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -21053,7 +21053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B436" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -21083,7 +21083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B437" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -21113,7 +21113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B438" t="str">
         <f t="shared" si="32"/>
         <v>UC_Max_TFTRH_TRR</v>
@@ -21143,11 +21143,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:10" x14ac:dyDescent="0.35">
       <c r="I439" s="26"/>
       <c r="J439" s="13"/>
     </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C440" s="27"/>
       <c r="D440" s="27"/>
       <c r="E440" s="27"/>
@@ -21157,7 +21157,7 @@
       <c r="I440" s="28"/>
       <c r="J440" s="13"/>
     </row>
-    <row r="441" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C441" s="27"/>
       <c r="D441" s="27"/>
       <c r="E441" s="27"/>
@@ -21167,7 +21167,7 @@
       <c r="I441" s="28"/>
       <c r="J441" s="13"/>
     </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C442" s="27"/>
       <c r="D442" s="27"/>
       <c r="E442" s="27"/>
@@ -21177,7 +21177,7 @@
       <c r="I442" s="28"/>
       <c r="J442" s="13"/>
     </row>
-    <row r="443" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C443" s="27"/>
       <c r="D443" s="27"/>
       <c r="E443" s="27"/>
@@ -21187,7 +21187,7 @@
       <c r="I443" s="28"/>
       <c r="J443" s="13"/>
     </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C444" s="27"/>
       <c r="D444" s="27"/>
       <c r="E444" s="27"/>
@@ -21197,7 +21197,7 @@
       <c r="I444" s="28"/>
       <c r="J444" s="13"/>
     </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C445" s="27"/>
       <c r="D445" s="27"/>
       <c r="E445" s="27"/>
@@ -21207,7 +21207,7 @@
       <c r="I445" s="28"/>
       <c r="J445" s="13"/>
     </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C446" s="27"/>
       <c r="D446" s="27"/>
       <c r="E446" s="27"/>
@@ -21217,7 +21217,7 @@
       <c r="I446" s="28"/>
       <c r="J446" s="13"/>
     </row>
-    <row r="447" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C447" s="27"/>
       <c r="D447" s="27"/>
       <c r="E447" s="27"/>
@@ -21227,7 +21227,7 @@
       <c r="I447" s="28"/>
       <c r="J447" s="13"/>
     </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C448" s="27"/>
       <c r="D448" s="27"/>
       <c r="E448" s="27"/>
@@ -21237,7 +21237,7 @@
       <c r="I448" s="28"/>
       <c r="J448" s="13"/>
     </row>
-    <row r="449" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C449" s="27"/>
       <c r="D449" s="27"/>
       <c r="E449" s="27"/>
@@ -21247,7 +21247,7 @@
       <c r="I449" s="28"/>
       <c r="J449" s="13"/>
     </row>
-    <row r="450" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C450" s="27"/>
       <c r="D450" s="27"/>
       <c r="E450" s="27"/>
@@ -21257,7 +21257,7 @@
       <c r="I450" s="28"/>
       <c r="J450" s="13"/>
     </row>
-    <row r="451" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C451" s="27"/>
       <c r="D451" s="27"/>
       <c r="E451" s="27"/>
@@ -21267,7 +21267,7 @@
       <c r="I451" s="28"/>
       <c r="J451" s="13"/>
     </row>
-    <row r="452" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C452" s="27"/>
       <c r="D452" s="27"/>
       <c r="E452" s="27"/>
@@ -21277,7 +21277,7 @@
       <c r="I452" s="28"/>
       <c r="J452" s="13"/>
     </row>
-    <row r="453" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C453" s="27"/>
       <c r="D453" s="27"/>
       <c r="E453" s="27"/>
@@ -21287,7 +21287,7 @@
       <c r="I453" s="28"/>
       <c r="J453" s="13"/>
     </row>
-    <row r="454" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C454" s="27"/>
       <c r="D454" s="27"/>
       <c r="E454" s="27"/>
@@ -21297,7 +21297,7 @@
       <c r="I454" s="28"/>
       <c r="J454" s="13"/>
     </row>
-    <row r="455" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C455" s="27"/>
       <c r="D455" s="27"/>
       <c r="E455" s="27"/>
@@ -21307,7 +21307,7 @@
       <c r="I455" s="28"/>
       <c r="J455" s="13"/>
     </row>
-    <row r="456" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C456" s="27"/>
       <c r="D456" s="27"/>
       <c r="E456" s="27"/>
@@ -21317,7 +21317,7 @@
       <c r="I456" s="28"/>
       <c r="J456" s="13"/>
     </row>
-    <row r="457" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C457" s="27"/>
       <c r="D457" s="27"/>
       <c r="E457" s="27"/>
@@ -21327,7 +21327,7 @@
       <c r="I457" s="28"/>
       <c r="J457" s="13"/>
     </row>
-    <row r="458" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C458" s="27"/>
       <c r="D458" s="27"/>
       <c r="E458" s="27"/>
@@ -21337,7 +21337,7 @@
       <c r="I458" s="28"/>
       <c r="J458" s="13"/>
     </row>
-    <row r="459" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C459" s="27"/>
       <c r="D459" s="27"/>
       <c r="E459" s="27"/>
@@ -21347,7 +21347,7 @@
       <c r="I459" s="28"/>
       <c r="J459" s="13"/>
     </row>
-    <row r="460" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C460" s="27"/>
       <c r="D460" s="27"/>
       <c r="E460" s="27"/>
@@ -21357,7 +21357,7 @@
       <c r="I460" s="28"/>
       <c r="J460" s="13"/>
     </row>
-    <row r="461" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C461" s="27"/>
       <c r="D461" s="27"/>
       <c r="E461" s="27"/>
@@ -21367,7 +21367,7 @@
       <c r="I461" s="28"/>
       <c r="J461" s="13"/>
     </row>
-    <row r="462" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C462" s="27"/>
       <c r="D462" s="27"/>
       <c r="E462" s="27"/>
@@ -21377,7 +21377,7 @@
       <c r="I462" s="28"/>
       <c r="J462" s="13"/>
     </row>
-    <row r="463" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C463" s="27"/>
       <c r="D463" s="27"/>
       <c r="E463" s="27"/>
@@ -21387,7 +21387,7 @@
       <c r="I463" s="28"/>
       <c r="J463" s="13"/>
     </row>
-    <row r="464" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C464" s="27"/>
       <c r="D464" s="27"/>
       <c r="E464" s="27"/>
@@ -21397,7 +21397,7 @@
       <c r="I464" s="28"/>
       <c r="J464" s="13"/>
     </row>
-    <row r="465" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C465" s="27"/>
       <c r="D465" s="27"/>
       <c r="E465" s="27"/>
@@ -21407,7 +21407,7 @@
       <c r="I465" s="28"/>
       <c r="J465" s="13"/>
     </row>
-    <row r="466" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C466" s="27"/>
       <c r="D466" s="27"/>
       <c r="E466" s="27"/>
@@ -21417,7 +21417,7 @@
       <c r="I466" s="28"/>
       <c r="J466" s="13"/>
     </row>
-    <row r="467" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C467" s="27"/>
       <c r="D467" s="27"/>
       <c r="E467" s="27"/>
@@ -21427,7 +21427,7 @@
       <c r="I467" s="28"/>
       <c r="J467" s="13"/>
     </row>
-    <row r="468" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C468" s="27"/>
       <c r="D468" s="27"/>
       <c r="E468" s="27"/>
@@ -21437,7 +21437,7 @@
       <c r="I468" s="28"/>
       <c r="J468" s="13"/>
     </row>
-    <row r="469" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C469" s="27"/>
       <c r="D469" s="27"/>
       <c r="E469" s="27"/>
@@ -21447,7 +21447,7 @@
       <c r="I469" s="28"/>
       <c r="J469" s="13"/>
     </row>
-    <row r="470" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C470" s="27"/>
       <c r="D470" s="27"/>
       <c r="E470" s="27"/>
@@ -21457,7 +21457,7 @@
       <c r="I470" s="28"/>
       <c r="J470" s="13"/>
     </row>
-    <row r="471" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C471" s="27"/>
       <c r="D471" s="27"/>
       <c r="E471" s="27"/>
@@ -21467,7 +21467,7 @@
       <c r="I471" s="28"/>
       <c r="J471" s="13"/>
     </row>
-    <row r="472" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C472" s="27"/>
       <c r="D472" s="27"/>
       <c r="E472" s="27"/>
@@ -21477,7 +21477,7 @@
       <c r="I472" s="28"/>
       <c r="J472" s="13"/>
     </row>
-    <row r="473" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C473" s="27"/>
       <c r="D473" s="27"/>
       <c r="E473" s="27"/>
@@ -21487,7 +21487,7 @@
       <c r="I473" s="28"/>
       <c r="J473" s="13"/>
     </row>
-    <row r="474" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C474" s="27"/>
       <c r="D474" s="27"/>
       <c r="E474" s="27"/>
@@ -21497,7 +21497,7 @@
       <c r="I474" s="28"/>
       <c r="J474" s="13"/>
     </row>
-    <row r="475" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C475" s="27"/>
       <c r="D475" s="27"/>
       <c r="E475" s="27"/>
@@ -21507,7 +21507,7 @@
       <c r="I475" s="28"/>
       <c r="J475" s="13"/>
     </row>
-    <row r="476" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C476" s="27"/>
       <c r="D476" s="27"/>
       <c r="E476" s="27"/>
@@ -21517,7 +21517,7 @@
       <c r="I476" s="28"/>
       <c r="J476" s="13"/>
     </row>
-    <row r="477" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C477" s="27"/>
       <c r="D477" s="27"/>
       <c r="E477" s="27"/>
@@ -21527,7 +21527,7 @@
       <c r="I477" s="28"/>
       <c r="J477" s="13"/>
     </row>
-    <row r="478" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C478" s="27"/>
       <c r="D478" s="27"/>
       <c r="E478" s="27"/>
@@ -21537,7 +21537,7 @@
       <c r="I478" s="28"/>
       <c r="J478" s="13"/>
     </row>
-    <row r="479" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C479" s="27"/>
       <c r="D479" s="27"/>
       <c r="E479" s="27"/>
@@ -21547,7 +21547,7 @@
       <c r="I479" s="28"/>
       <c r="J479" s="13"/>
     </row>
-    <row r="480" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C480" s="27"/>
       <c r="D480" s="27"/>
       <c r="E480" s="27"/>
@@ -21557,7 +21557,7 @@
       <c r="I480" s="28"/>
       <c r="J480" s="13"/>
     </row>
-    <row r="481" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C481" s="27"/>
       <c r="D481" s="27"/>
       <c r="E481" s="27"/>
@@ -21567,7 +21567,7 @@
       <c r="I481" s="28"/>
       <c r="J481" s="13"/>
     </row>
-    <row r="482" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C482" s="27"/>
       <c r="D482" s="27"/>
       <c r="E482" s="27"/>
@@ -21577,7 +21577,7 @@
       <c r="I482" s="28"/>
       <c r="J482" s="13"/>
     </row>
-    <row r="483" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C483" s="27"/>
       <c r="D483" s="27"/>
       <c r="E483" s="27"/>
@@ -21587,7 +21587,7 @@
       <c r="I483" s="28"/>
       <c r="J483" s="13"/>
     </row>
-    <row r="484" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C484" s="27"/>
       <c r="D484" s="27"/>
       <c r="E484" s="27"/>
@@ -21596,7 +21596,7 @@
       <c r="H484" s="27"/>
       <c r="I484" s="28"/>
     </row>
-    <row r="485" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C485" s="27"/>
       <c r="D485" s="27"/>
       <c r="E485" s="27"/>
@@ -21605,7 +21605,7 @@
       <c r="H485" s="27"/>
       <c r="I485" s="28"/>
     </row>
-    <row r="486" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C486" s="27"/>
       <c r="D486" s="27"/>
       <c r="E486" s="27"/>
@@ -21614,7 +21614,7 @@
       <c r="H486" s="27"/>
       <c r="I486" s="28"/>
     </row>
-    <row r="487" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C487" s="27"/>
       <c r="D487" s="27"/>
       <c r="E487" s="27"/>
@@ -21623,7 +21623,7 @@
       <c r="H487" s="27"/>
       <c r="I487" s="28"/>
     </row>
-    <row r="488" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C488" s="27"/>
       <c r="D488" s="27"/>
       <c r="E488" s="27"/>
@@ -21632,7 +21632,7 @@
       <c r="H488" s="27"/>
       <c r="I488" s="28"/>
     </row>
-    <row r="489" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C489" s="27"/>
       <c r="D489" s="27"/>
       <c r="E489" s="27"/>
@@ -21641,7 +21641,7 @@
       <c r="H489" s="27"/>
       <c r="I489" s="28"/>
     </row>
-    <row r="490" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C490" s="27"/>
       <c r="D490" s="27"/>
       <c r="E490" s="27"/>
@@ -21656,21 +21656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -21893,24 +21878,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374076A5-D878-43BE-B4F2-194C4F3E5AAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1C7F51-E182-4B6C-86F3-B0C330F09ED8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E110B776-F2CE-45BC-847C-1BEB433E61B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21927,4 +21910,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1C7F51-E182-4B6C-86F3-B0C330F09ED8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374076A5-D878-43BE-B4F2-194C4F3E5AAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>